--- a/结果模板 2.xlsx
+++ b/结果模板 2.xlsx
@@ -111,13 +111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,6 +125,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,6 +143,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -144,6 +165,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -152,15 +220,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,54 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,36 +271,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,103 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,79 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +499,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,16 +539,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,30 +579,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -595,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,10 +741,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -756,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1656,27 +1656,56 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <f>D11-C11</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11">
+        <f>(G11-F11)</f>
+        <v>0</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11">
+        <f>J11-I11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f>(K11+H11+E11)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="e">
+        <f>($L$12-L11)/$E$13*8*1000/3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="5">
+        <f>(O11+N11)/2</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>(P11*0.27351-0.01216)/3*1000</f>
+        <v>-4.05333333333333</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="T11" s="7">
+        <f>(S11+R11)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <f>(108.1*T11-0.2735)/1</f>
+        <v>-0.2735</v>
+      </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
